--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_003/summary_statistics.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_003/summary_statistics.xlsx
@@ -585,55 +585,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02406417112299465</v>
+        <v>0.02046783625730994</v>
       </c>
       <c r="C3" t="n">
-        <v>95.12667435409145</v>
+        <v>117.6892240124139</v>
       </c>
       <c r="D3" t="n">
-        <v>317.4486542222979</v>
+        <v>358.4468342555647</v>
       </c>
       <c r="E3" t="n">
-        <v>1.498463616472706e-06</v>
+        <v>2.01264719090829e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004008607958568073</v>
+        <v>0.0003854693264666382</v>
       </c>
       <c r="G3" t="n">
-        <v>3.39</v>
+        <v>2.410000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1.808333333333333</v>
+        <v>2.045</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01882022430268943</v>
+        <v>-0.2079352385786528</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4932037014632633</v>
+        <v>0.6214687870455708</v>
       </c>
       <c r="L3" t="n">
-        <v>1.082218747149067</v>
+        <v>1.194621465223199</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.8541523656240352</v>
+        <v>-1.181674401984915</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="P3" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="Q3" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="R3" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
@@ -643,40 +643,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03327940016288639</v>
+        <v>0.03011861900201164</v>
       </c>
       <c r="C4" t="n">
-        <v>56.2104670652167</v>
+        <v>61.91367877994595</v>
       </c>
       <c r="D4" t="n">
-        <v>146.4317887754359</v>
+        <v>154.645764026951</v>
       </c>
       <c r="E4" t="n">
-        <v>3.701028348688529e-06</v>
+        <v>6.232106488632041e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004315505888190245</v>
+        <v>0.0004004603020447152</v>
       </c>
       <c r="G4" t="n">
-        <v>4.853609525263524</v>
+        <v>3.684217369689069</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9760334230639097</v>
+        <v>0.9558783342196372</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6474635430261866</v>
+        <v>0.6507275372101721</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5571005587173246</v>
+        <v>0.7084416844556182</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3030868954813774</v>
+        <v>0.3461178386506098</v>
       </c>
       <c r="L4" t="n">
-        <v>1.097145137280857</v>
+        <v>1.395741010335211</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3856830088235566</v>
+        <v>0.454669217436069</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -704,52 +704,52 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.02931268269998</v>
+        <v>42.95171977344576</v>
       </c>
       <c r="D5" t="n">
-        <v>139.0974277833936</v>
+        <v>153.8959083394768</v>
       </c>
       <c r="E5" t="n">
-        <v>8.193795382432118e-09</v>
+        <v>1.878504337823328e-08</v>
       </c>
       <c r="F5" t="n">
-        <v>3.467823290331183e-05</v>
+        <v>2.204882598805248e-05</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.045400158431121</v>
+        <v>-1.192674386793163</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1055081175561679</v>
+        <v>0.1036118214534361</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.7269685173717831</v>
+        <v>-0.611282118089528</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.492313274050776</v>
+        <v>-2.526661171859902</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="P5" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="Q5" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="R5" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
@@ -762,52 +762,52 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>52.34877915461516</v>
+        <v>76.39638850937212</v>
       </c>
       <c r="D6" t="n">
-        <v>208.500637754582</v>
+        <v>264.3713189507761</v>
       </c>
       <c r="E6" t="n">
-        <v>1.416785642247565e-07</v>
+        <v>2.710446603607039e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001316892501910562</v>
+        <v>0.0001254317040036473</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.1</v>
+        <v>1.175</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3953628666168182</v>
+        <v>-0.6603777157050137</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2597555727473786</v>
+        <v>0.3573728255303431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1722164873027681</v>
+        <v>0.0388217903513231</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.105393597064472</v>
+        <v>-1.400578399192712</v>
       </c>
       <c r="N6" t="n">
         <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="P6" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="Q6" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="R6" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
@@ -820,52 +820,52 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>86.14856236878325</v>
+        <v>105.5019411193835</v>
       </c>
       <c r="D7" t="n">
-        <v>289.2279340423925</v>
+        <v>328.5155669766004</v>
       </c>
       <c r="E7" t="n">
-        <v>3.487788766499023e-07</v>
+        <v>5.378955541361042e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002868400420918594</v>
+        <v>0.0002449502137833669</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.04282284761154291</v>
+        <v>-0.3774150857793311</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3933857526916854</v>
+        <v>0.5505055708735234</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9465425962046929</v>
+        <v>0.8300168138388675</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.8718180650538787</v>
+        <v>-1.179525044406483</v>
       </c>
       <c r="N7" t="n">
         <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="P7" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="Q7" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="R7" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
@@ -875,55 +875,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.053475935828877</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="C8" t="n">
-        <v>116.9237254759604</v>
+        <v>140.4849714054781</v>
       </c>
       <c r="D8" t="n">
-        <v>392.1695252364775</v>
+        <v>413.8496521380623</v>
       </c>
       <c r="E8" t="n">
-        <v>1.051128944383378e-06</v>
+        <v>1.729050363683703e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000519041457960961</v>
+        <v>0.0005078622790310222</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>3.525</v>
       </c>
       <c r="H8" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3326491523609407</v>
+        <v>0.1057634436637727</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6803276413094956</v>
+        <v>0.8985078420268164</v>
       </c>
       <c r="L8" t="n">
-        <v>1.829522456238086</v>
+        <v>2.395852769138603</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.662100975787407</v>
+        <v>-0.9725333466326038</v>
       </c>
       <c r="N8" t="n">
         <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="P8" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="Q8" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="R8" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
@@ -933,55 +933,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.106951871657754</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="C9" t="n">
-        <v>270.2593480818525</v>
+        <v>378.9620099151904</v>
       </c>
       <c r="D9" t="n">
-        <v>771.7333759198301</v>
+        <v>979.0751374200519</v>
       </c>
       <c r="E9" t="n">
-        <v>2.479676220364421e-05</v>
+        <v>4.811524170065601e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002580544237747133</v>
+        <v>0.001549329258484005</v>
       </c>
       <c r="G9" t="n">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.445237155517928</v>
+        <v>2.216152104767195</v>
       </c>
       <c r="K9" t="n">
-        <v>1.329946333392617</v>
+        <v>1.516294096483425</v>
       </c>
       <c r="L9" t="n">
-        <v>3.342561006688892</v>
+        <v>5.086433265829428</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4619086103160087</v>
+        <v>0.0792976415772777</v>
       </c>
       <c r="N9" t="n">
         <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>467</v>
+        <v>672</v>
       </c>
       <c r="P9" t="n">
-        <v>653</v>
+        <v>842</v>
       </c>
       <c r="Q9" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="R9" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
